--- a/Biomass/Biomass.xlsx
+++ b/Biomass/Biomass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Biomass\Shock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS_Kenya\Biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5F1204-53C6-4B25-891A-D44C8D630AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15594C3-2C8C-456E-A209-1F6AF8562580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4170" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="264">
   <si>
     <t>level_row</t>
   </si>
@@ -574,9 +574,6 @@
     <t>Modeled</t>
   </si>
   <si>
-    <t>kSh</t>
-  </si>
-  <si>
     <t>Heating value petroleum</t>
   </si>
   <si>
@@ -697,9 +694,6 @@
     <t>Biomass to fertilizer rate</t>
   </si>
   <si>
-    <t>tbc</t>
-  </si>
-  <si>
     <t>Calliope</t>
   </si>
   <si>
@@ -827,6 +821,15 @@
   </si>
   <si>
     <t>Affected Parmeter</t>
+  </si>
+  <si>
+    <t>Z,VA,S</t>
+  </si>
+  <si>
+    <t>Price of fertilzer in kSh per ton</t>
+  </si>
+  <si>
+    <t>$/ton</t>
   </si>
 </sst>
 </file>
@@ -1120,9 +1123,6 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1155,6 +1155,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1501,33 +1504,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="44" t="s">
+      <c r="B2" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="46">
+      <c r="D2" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="45">
         <f>main!C35</f>
         <v>-2.5592417061611375E-2</v>
       </c>
@@ -1558,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,23 +1574,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="46">
         <f>main!C31</f>
-        <v>0.99999999999967049</v>
+        <v>5421.3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1646,80 +1649,80 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="42" t="s">
-        <v>261</v>
+      <c r="H1" s="41" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="45">
+      <c r="F2" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="44">
         <f>main!C32</f>
         <v>-2072.2135007849292</v>
       </c>
-      <c r="H2" s="47" t="s">
-        <v>191</v>
+      <c r="H2" s="46" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="49">
+      <c r="F3" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="48">
         <f>main!C33</f>
         <v>-1417.3333333333333</v>
       </c>
-      <c r="H3" s="47" t="s">
-        <v>191</v>
+      <c r="H3" s="46" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1788,47 +1791,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="42" t="s">
-        <v>261</v>
+      <c r="G1" s="41" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="42">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="49">
+        <f>main!C34</f>
+        <v>216.852</v>
+      </c>
+      <c r="G2" s="46" t="s">
         <v>190</v>
-      </c>
-      <c r="F2" s="50">
-        <f>main!C34</f>
-        <v>3.9999999999986817E-2</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2535,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2567,19 +2570,19 @@
         <v>173</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>259</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>174</v>
@@ -2591,13 +2594,13 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="54"/>
       <c r="B2" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C2" s="20">
         <v>10000</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
@@ -2610,35 +2613,44 @@
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="54"/>
       <c r="B3" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="37">
-        <f>C20</f>
-        <v>0</v>
+        <v>219</v>
+      </c>
+      <c r="C3" s="50">
+        <v>500</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+        <v>263</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="20">
+        <v>400</v>
+      </c>
+      <c r="G3" s="20">
+        <v>600</v>
+      </c>
+      <c r="H3" s="20">
+        <v>50</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="54"/>
       <c r="B4" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="20">
         <v>500</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
@@ -2651,14 +2663,14 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="54"/>
       <c r="B5" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="20">
         <f>17/17*80</f>
         <v>80</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
@@ -2667,20 +2679,20 @@
       <c r="I5" s="20"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="54"/>
       <c r="B6" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="33">
         <f>0.27</f>
         <v>0.27</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
@@ -2689,19 +2701,19 @@
       <c r="I6" s="20"/>
       <c r="J6" s="14"/>
       <c r="K6" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="54"/>
       <c r="B7" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C7" s="33">
         <v>2110</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -2709,19 +2721,21 @@
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="38" t="s">
-        <v>256</v>
+      <c r="K7" s="37" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="54"/>
       <c r="B8" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" s="20">
         <v>0.4</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>222</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
@@ -2733,13 +2747,13 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="54"/>
       <c r="B9" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="20">
         <v>106.3</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -2752,13 +2766,13 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="54"/>
       <c r="B10" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="20">
         <v>39</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -2767,19 +2781,19 @@
       <c r="I10" s="20"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="54"/>
       <c r="B11" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="20">
         <v>0.98</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -2788,22 +2802,22 @@
       <c r="I11" s="20"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="54"/>
       <c r="B12" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="20">
         <v>0.11</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F12" s="20">
         <v>0.107</v>
@@ -2815,7 +2829,7 @@
         <v>1E-3</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -2823,13 +2837,13 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="54"/>
       <c r="B13" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="20">
         <v>25</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -2842,33 +2856,33 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="54"/>
       <c r="B14" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="20">
         <v>0.3</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>222</v>
+      </c>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
-        <v>219</v>
-      </c>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="54"/>
       <c r="B15" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C15" s="20">
         <f>C19*(C43+C44+C45)*12/(10^6)</f>
-        <v>6.5851364063948207E-3</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -2877,19 +2891,19 @@
       <c r="I15" s="20"/>
       <c r="J15" s="14"/>
       <c r="K15" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
       <c r="B16" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C16" s="20">
         <v>250</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -2902,13 +2916,13 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="54"/>
       <c r="B17" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C17" s="29">
         <v>250000</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -2921,13 +2935,13 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="54"/>
       <c r="B18" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C18" s="20">
         <v>1</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -2939,37 +2953,37 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="C19" s="40">
-        <v>3.1357792411403906E-3</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
+        <v>249</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="39">
+        <v>17</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="53" t="s">
         <v>176</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="35">
         <v>0</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -2982,12 +2996,14 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="53"/>
       <c r="B21" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C21" s="32">
         <v>0.3</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="21" t="s">
+        <v>222</v>
+      </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -2999,14 +3015,14 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
       <c r="B22" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" s="23">
         <f>C2*C16*C19*C9/(10^6)</f>
-        <v>0.8333333333330587</v>
+        <v>4517.75</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -3019,14 +3035,14 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="52"/>
       <c r="B23" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="23">
         <f>C20*C17*C19*C9/(10^6)</f>
         <v>0</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -3039,14 +3055,14 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="23">
         <f>C4*C18*C19*1000*C9/(10^6)</f>
-        <v>0.16666666666661176</v>
+        <v>903.55</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -3059,14 +3075,14 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="52"/>
       <c r="B25" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="27">
         <f>C28*C14</f>
         <v>26666.666666666668</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -3079,14 +3095,14 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="52"/>
       <c r="B26" s="25" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="C26" s="23">
-        <f>500*C9/1000</f>
+        <f>C3*C9/1000</f>
         <v>53.15</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -3095,20 +3111,20 @@
       <c r="I26" s="23"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="52"/>
       <c r="B27" s="25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C27" s="23">
         <f>C26*C25/1000</f>
         <v>1417.3333333333333</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -3121,14 +3137,14 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="52"/>
       <c r="B28" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="27">
         <f>C5/0.45/10/200*10^6</f>
         <v>88888.888888888891</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -3137,20 +3153,20 @@
       <c r="I28" s="23"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="52"/>
       <c r="B29" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C29" s="27">
         <f>C5*C6/C8</f>
         <v>54</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -3163,14 +3179,14 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="52"/>
       <c r="B30" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C30" s="27">
         <f>C5/C8*1000*3600/C10/C11*C12/1000</f>
         <v>2072.2135007849292</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -3185,14 +3201,14 @@
         <v>177</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C31" s="28">
         <f>SUM(C22:C24)</f>
-        <v>0.99999999999967049</v>
+        <v>5421.3</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
@@ -3200,21 +3216,21 @@
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
       <c r="J31" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="51"/>
       <c r="B32" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C32" s="28">
         <f>-C30</f>
         <v>-2072.2135007849292</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -3222,21 +3238,21 @@
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
       <c r="J32" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="51"/>
       <c r="B33" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C33" s="28">
         <f>-C27</f>
         <v>-1417.3333333333333</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -3244,21 +3260,21 @@
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
       <c r="J33" s="16" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="51"/>
       <c r="B34" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="26">
         <f>C31/C13</f>
-        <v>3.9999999999986817E-2</v>
+        <v>216.852</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -3266,21 +3282,21 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
       <c r="J34" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C35" s="36">
         <f>-C29/C7</f>
         <v>-2.5592417061611375E-2</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -3288,18 +3304,18 @@
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
       <c r="J35" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K35" s="16"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -3310,15 +3326,15 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C43">
         <v>75000</v>
@@ -3326,7 +3342,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C44">
         <v>50000</v>
@@ -3334,7 +3350,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C45">
         <v>50000</v>
